--- a/NOTE.xlsx
+++ b/NOTE.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\WEB\QMLAdmin\3\qmloffice\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CODING\WEB\task_manager\QMLAdmin\M_admin2_html\qmloffice\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E74B7ADB-DBF3-47A1-9D3F-A82AFE8E54F2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1CE7CBD-C603-474C-A15A-D769E32E01CB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1259,8 +1259,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C11:U289"/>
   <sheetViews>
-    <sheetView topLeftCell="A313" workbookViewId="0">
-      <selection activeCell="C302" sqref="C302"/>
+    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2511,7 +2511,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61AA6CF1-F3E3-4CBB-9EB5-3DDC1BD5BD5A}">
   <dimension ref="C5:I33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="Q30" sqref="Q30"/>
     </sheetView>
   </sheetViews>
